--- a/south_des_moines.xlsx
+++ b/south_des_moines.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/26/2024 06:07 PM</t>
+      <t>12/28/2024 09:46 AM</t>
     </r>
   </si>
   <si>

--- a/south_des_moines.xlsx
+++ b/south_des_moines.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="358" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="359" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/28/2024 09:46 AM</t>
+      <t>03/24/2025 09:09 PM</t>
     </r>
   </si>
   <si>
@@ -99,31 +99,88 @@
     <t>Appliances</t>
   </si>
   <si>
+    <t>6" Drip Pan</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dey Distributing Inc</t>
+  </si>
+  <si>
+    <t>6" GE drip pan</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WB32X5075</t>
+  </si>
+  <si>
+    <t>6" Heating Element</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8" Drip Pan</t>
+  </si>
+  <si>
+    <t>8" GE drip pan</t>
+  </si>
+  <si>
+    <t>WB32X5076</t>
+  </si>
+  <si>
+    <t>8" Heating element</t>
+  </si>
+  <si>
+    <t>Richmond? Electric Water Heater Tune Up Kit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6832301</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
+    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6235506</t>
+  </si>
+  <si>
+    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
+  </si>
+  <si>
+    <t>6933108</t>
+  </si>
+  <si>
     <t>3/4" x 18" Water Heater Supply Line</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>6831555</t>
   </si>
   <si>
-    <t>6" Drip Pan</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Dey Distributing Inc</t>
-  </si>
-  <si>
-    <t>6" GE drip pan</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>WB32X5075</t>
+    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
+  </si>
+  <si>
+    <t>6835049</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
+    <t>Stove</t>
   </si>
   <si>
     <t>6" GE element</t>
@@ -135,72 +192,99 @@
     <t>Menards</t>
   </si>
   <si>
-    <t>6" Heating Element</t>
-  </si>
-  <si>
-    <t>8" Drip Pan</t>
-  </si>
-  <si>
-    <t>8" GE drip pan</t>
-  </si>
-  <si>
-    <t>WB32X5076</t>
-  </si>
-  <si>
     <t>8" GE element</t>
   </si>
   <si>
     <t>469-0612</t>
   </si>
   <si>
-    <t>8" Heating element</t>
-  </si>
-  <si>
-    <t>Refrigerator</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Archer Home Center</t>
-  </si>
-  <si>
-    <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
-  </si>
-  <si>
-    <t>6835049</t>
-  </si>
-  <si>
-    <t>Menards - Kading Properties LLC</t>
-  </si>
-  <si>
-    <t>Richmond? Electric Water Heater Tune Up Kit</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6832301</t>
-  </si>
-  <si>
-    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
-  </si>
-  <si>
-    <t>6235506</t>
-  </si>
-  <si>
-    <t>Stove</t>
-  </si>
-  <si>
-    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
-  </si>
-  <si>
-    <t>6933108</t>
-  </si>
-  <si>
     <t>Electrical</t>
   </si>
   <si>
+    <t>Zzzzzdo otuse</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>Ivory 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
     <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
   </si>
   <si>
@@ -228,6 +312,63 @@
     <t>3639847</t>
   </si>
   <si>
+    <t>42" White Indoor LED Ceiling Fan</t>
+  </si>
+  <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
     <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
   </si>
   <si>
@@ -243,34 +384,34 @@
     <t>3633946</t>
   </si>
   <si>
-    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
-  </si>
-  <si>
-    <t>3633759</t>
-  </si>
-  <si>
-    <t>42" White Indoor LED Ceiling Fan</t>
-  </si>
-  <si>
-    <t>3550712</t>
-  </si>
-  <si>
-    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
-  </si>
-  <si>
-    <t>3633733</t>
-  </si>
-  <si>
-    <t>60W Soft White LED Regular Light Bulb</t>
-  </si>
-  <si>
-    <t>ct as sngl; 24-pack</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3531029</t>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
   </si>
   <si>
     <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
@@ -282,18 +423,84 @@
     <t>3534371</t>
   </si>
   <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE-IGNORE</t>
+  </si>
+  <si>
+    <t>3533186</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>Zzzzdo notuse</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pack</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
     <t>A15 LED FAN Bulb - 60 Watt</t>
   </si>
   <si>
-    <t>ct as sngl; comes in 2 pack</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>3530189</t>
   </si>
   <si>
+    <t>stelpro wall thermostat</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Universal garage door remote</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage is attached</t>
+  </si>
+  <si>
+    <t>Blank box cap</t>
+  </si>
+  <si>
+    <t>3713417</t>
+  </si>
+  <si>
     <t>AA-Batteries</t>
   </si>
   <si>
@@ -303,222 +510,15 @@
     <t>5756024</t>
   </si>
   <si>
-    <t>Aircycler Smart Exhaust Switch</t>
-  </si>
-  <si>
-    <t>AIR SE1-W</t>
-  </si>
-  <si>
-    <t>Echo Group, Inc.</t>
-  </si>
-  <si>
     <t>B10 FAN Light Bulbs - 60 W</t>
   </si>
   <si>
     <t>ct as sngl; comes in 6 pk</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3538637</t>
-  </si>
-  <si>
-    <t>Blank box cap</t>
-  </si>
-  <si>
-    <t>3713417</t>
-  </si>
-  <si>
-    <t>Brass Knurled Head Screws (3-Pack)</t>
-  </si>
-  <si>
-    <t>comes in 3 pk</t>
-  </si>
-  <si>
-    <t>3456664</t>
-  </si>
-  <si>
-    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354001</t>
-  </si>
-  <si>
-    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
-  </si>
-  <si>
-    <t>3354003</t>
-  </si>
-  <si>
-    <t>Cadet Thermostat</t>
-  </si>
-  <si>
-    <t>3354031</t>
-  </si>
-  <si>
-    <t>Carbon Monoxide Detector</t>
-  </si>
-  <si>
-    <t>Hallway only IF garage attached</t>
-  </si>
-  <si>
-    <t>3E-Electrical Engineering &amp; Equipment Company</t>
-  </si>
-  <si>
-    <t>delta vent fan</t>
-  </si>
-  <si>
-    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
-  </si>
-  <si>
-    <t>3636057</t>
-  </si>
-  <si>
     <t>Electronic Thermostat (for baseboard heater)</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>FireX Direct Wire Ionization Smoke Alarm</t>
-  </si>
-  <si>
-    <t>3584619</t>
-  </si>
-  <si>
-    <t>G25 VANITY Light Bulbs - 40 Watt</t>
-  </si>
-  <si>
-    <t>3533415</t>
-  </si>
-  <si>
-    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
-  </si>
-  <si>
-    <t>3513170</t>
-  </si>
-  <si>
-    <t>Ivory 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3632909</t>
-  </si>
-  <si>
-    <t>Kitchen Light Fixture-13" Stella White</t>
-  </si>
-  <si>
-    <t>3514207</t>
-  </si>
-  <si>
-    <t>Patriot Lighting? White Teardrop Pull Chain</t>
-  </si>
-  <si>
-    <t>for ceiling fan</t>
-  </si>
-  <si>
-    <t>3458565</t>
-  </si>
-  <si>
-    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6-pk</t>
-  </si>
-  <si>
-    <t>5756026</t>
-  </si>
-  <si>
-    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670100</t>
-  </si>
-  <si>
-    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3670102</t>
-  </si>
-  <si>
-    <t>Silver Dryer outlet cover</t>
-  </si>
-  <si>
-    <t>Smart Electrican? Light Control with Photocell</t>
-  </si>
-  <si>
-    <t>3681235</t>
-  </si>
-  <si>
-    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674640</t>
-  </si>
-  <si>
-    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
-  </si>
-  <si>
-    <t>3674653</t>
-  </si>
-  <si>
-    <t>Stelpro 24" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro 48" Baseboard Heater</t>
-  </si>
-  <si>
-    <t>Stelpro Thermostat (for baseboard heater)</t>
-  </si>
-  <si>
-    <t>stelpro wall thermostat</t>
-  </si>
-  <si>
-    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
-  </si>
-  <si>
-    <t>3636060</t>
-  </si>
-  <si>
-    <t>Torrino Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>3564916</t>
-  </si>
-  <si>
-    <t>Universal garage door remote</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>White 20-Amp Side Wire Single Outlet</t>
-  </si>
-  <si>
-    <t>3638974</t>
-  </si>
-  <si>
-    <t>ZZZCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE-IGNORE</t>
-  </si>
-  <si>
-    <t>3533186</t>
-  </si>
-  <si>
-    <t>Zzzzdo notuse</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 6 pack</t>
-  </si>
-  <si>
-    <t>Zzzzzdo otuse</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -588,118 +588,76 @@
     <t>Exterior</t>
   </si>
   <si>
-    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
-  </si>
-  <si>
-    <t>5674704</t>
-  </si>
-  <si>
     <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
   </si>
   <si>
     <t>1 unit=1 box</t>
   </si>
   <si>
+    <t>81" Foam Replacement Door Seal - BEIGE</t>
+  </si>
+  <si>
+    <t>4366468</t>
+  </si>
+  <si>
+    <t>Address #0</t>
+  </si>
+  <si>
+    <t>Address #1</t>
+  </si>
+  <si>
+    <t>Address #2</t>
+  </si>
+  <si>
+    <t>Address #3</t>
+  </si>
+  <si>
+    <t>Address #4</t>
+  </si>
+  <si>
+    <t>Address #5</t>
+  </si>
+  <si>
+    <t>Address #6</t>
+  </si>
+  <si>
+    <t>Address #7</t>
+  </si>
+  <si>
+    <t>Address #8</t>
+  </si>
+  <si>
+    <t>Address #9</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
     <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311384</t>
   </si>
   <si>
-    <t>4" White Louvered Wall Vent Hood Cap</t>
-  </si>
-  <si>
-    <t>6399126</t>
-  </si>
-  <si>
-    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
-  </si>
-  <si>
-    <t>ct as sngl; comes in 20-ct</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6485275</t>
-  </si>
-  <si>
-    <t>4x4 slider</t>
-  </si>
-  <si>
-    <t>Gilcrest Jewett Lumber Company</t>
-  </si>
-  <si>
-    <t>5" White Wall Vent Hood Pest Barricade</t>
-  </si>
-  <si>
-    <t>6399429</t>
-  </si>
-  <si>
-    <t>5x4 slider</t>
-  </si>
-  <si>
-    <t>81" Foam Replacement Door Seal - BEIGE</t>
-  </si>
-  <si>
-    <t>4366468</t>
-  </si>
-  <si>
     <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
   </si>
   <si>
     <t>4311371</t>
-  </si>
-  <si>
-    <t>Ac trim</t>
-  </si>
-  <si>
-    <t>Outside trim for Ac</t>
-  </si>
-  <si>
-    <t>142-3100</t>
-  </si>
-  <si>
-    <t>Address #0</t>
-  </si>
-  <si>
-    <t>Address #1</t>
-  </si>
-  <si>
-    <t>Address #2</t>
-  </si>
-  <si>
-    <t>Address #3</t>
-  </si>
-  <si>
-    <t>Address #4</t>
-  </si>
-  <si>
-    <t>Address #5</t>
-  </si>
-  <si>
-    <t>Address #6</t>
-  </si>
-  <si>
-    <t>Address #7</t>
-  </si>
-  <si>
-    <t>Address #8</t>
-  </si>
-  <si>
-    <t>Address #9</t>
-  </si>
-  <si>
-    <t>Crestline 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Window screen</t>
-  </si>
-  <si>
-    <t>Bill's Windows &amp; Screens</t>
-  </si>
-  <si>
-    <t>Crestline 5' Window Screen</t>
   </si>
   <si>
     <t>Garage Door Rolled Steel Lift Handles</t>
@@ -712,25 +670,94 @@
     <t>4311444</t>
   </si>
   <si>
-    <t>Garage Door Sliding Interior Side Lock</t>
-  </si>
-  <si>
-    <t>4311428</t>
+    <t>Jelly Jar replacement globes</t>
+  </si>
+  <si>
+    <t>Master key locking mechanisms (deadbolts)</t>
+  </si>
+  <si>
+    <t>Security Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
+    <t>Plastic Universal outlet cover-clear</t>
+  </si>
+  <si>
+    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
   </si>
   <si>
     <t>Jeld Wen 4' Window Screen</t>
   </si>
   <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
     <t>Jeld Wen 5' Window Screen30</t>
   </si>
   <si>
-    <t>Jelly Jar Black Outdoor Wall Light</t>
-  </si>
-  <si>
-    <t>3565001</t>
-  </si>
-  <si>
-    <t>Jelly Jar replacement globes</t>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
+  </si>
+  <si>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
   </si>
   <si>
     <t>LH Service door</t>
@@ -739,46 +766,19 @@
     <t>4140337</t>
   </si>
   <si>
-    <t>Master key locking mechanisms (deadbolts)</t>
-  </si>
-  <si>
-    <t>Security Equipment, Inc.</t>
-  </si>
-  <si>
-    <t>Mastercraft LH Front Door</t>
-  </si>
-  <si>
-    <t>4140357</t>
-  </si>
-  <si>
-    <t>Mastercraft RH Front Door</t>
-  </si>
-  <si>
-    <t>4140356</t>
-  </si>
-  <si>
-    <t>Plastic Universal outlet cover-clear</t>
-  </si>
-  <si>
-    <t>RH Service door</t>
-  </si>
-  <si>
-    <t>4140336</t>
-  </si>
-  <si>
-    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
-  </si>
-  <si>
-    <t>Windsor 4' Window Screen</t>
-  </si>
-  <si>
-    <t>Windsor 5' Window Screen</t>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
   </si>
   <si>
     <t>Interior Decor</t>
   </si>
   <si>
-    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+    <t>Zzzzdo not use</t>
   </si>
   <si>
     <t>Pine board</t>
@@ -787,28 +787,22 @@
     <t>1031405</t>
   </si>
   <si>
-    <t>3-1/4" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316042</t>
-  </si>
-  <si>
-    <t>5" Textured White Wall Protector Plate</t>
-  </si>
-  <si>
-    <t>4316054</t>
-  </si>
-  <si>
-    <t>6 panel LH Interior Door</t>
-  </si>
-  <si>
-    <t>4112597</t>
-  </si>
-  <si>
-    <t>6 panel RH Interior Door</t>
-  </si>
-  <si>
-    <t>4112596</t>
+    <t>Chrome Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>6751654</t>
+  </si>
+  <si>
+    <t>White Toilet Paper Holder Roller</t>
+  </si>
+  <si>
+    <t>6752200</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
   </si>
   <si>
     <t>Brass Bed &amp; Bath Privacy Door Knob</t>
@@ -821,27 +815,6 @@
   </si>
   <si>
     <t>2218434</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Paper Holder</t>
-  </si>
-  <si>
-    <t>6751654</t>
-  </si>
-  <si>
-    <t>Concrete Floor Paint</t>
-  </si>
-  <si>
-    <t>5512344</t>
-  </si>
-  <si>
-    <t>Inside AC trim</t>
-  </si>
-  <si>
-    <t>Trim for inside A/C</t>
-  </si>
-  <si>
-    <t>103-7010</t>
   </si>
   <si>
     <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
@@ -860,16 +833,73 @@
     <t>3712308</t>
   </si>
   <si>
+    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712337</t>
+  </si>
+  <si>
+    <t>White Duplex Outlet Wall Plate- 10 pk</t>
+  </si>
+  <si>
+    <t>3712311</t>
+  </si>
+  <si>
+    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
+  </si>
+  <si>
+    <t>3715730</t>
+  </si>
+  <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>Zzzdonot use</t>
+  </si>
+  <si>
+    <t>Inside trim for Ac</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>6 panel RH Interior Door</t>
+  </si>
+  <si>
+    <t>4112596</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
     <t>Mirror</t>
   </si>
   <si>
     <t>5412091</t>
   </si>
   <si>
-    <t>Round White Plastic Toilet Seat</t>
-  </si>
-  <si>
-    <t>6764300</t>
+    <t>Concrete Floor Paint</t>
+  </si>
+  <si>
+    <t>5512344</t>
   </si>
   <si>
     <t>Satin Nickel hall &amp; closet door knob</t>
@@ -884,60 +914,213 @@
     <t>2218721</t>
   </si>
   <si>
-    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
-  </si>
-  <si>
-    <t>3712337</t>
-  </si>
-  <si>
-    <t>White Duplex Outlet Wall Plate- 10 pk</t>
-  </si>
-  <si>
-    <t>3712311</t>
-  </si>
-  <si>
-    <t>White Globe Replacement Glass with 3-1/4"</t>
-  </si>
-  <si>
-    <t>3451973</t>
-  </si>
-  <si>
-    <t>White Toilet Paper Holder Roller</t>
-  </si>
-  <si>
-    <t>6752200</t>
-  </si>
-  <si>
-    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
-  </si>
-  <si>
-    <t>3715730</t>
-  </si>
-  <si>
-    <t>Zzzdonot use</t>
-  </si>
-  <si>
-    <t>Inside trim for Ac</t>
-  </si>
-  <si>
-    <t>Zzzzdo not use</t>
+    <t>Inside AC trim</t>
+  </si>
+  <si>
+    <t>Trim for inside A/C</t>
+  </si>
+  <si>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
   </si>
   <si>
     <t>Plumbing</t>
   </si>
   <si>
+    <t>Air Ventilator Motor Kit</t>
+  </si>
+  <si>
+    <t>Bathroom Sink Faucet</t>
+  </si>
+  <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
+    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
+  </si>
+  <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6641269</t>
+  </si>
+  <si>
+    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
+  </si>
+  <si>
+    <t>6641300</t>
+  </si>
+  <si>
     <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
   </si>
   <si>
     <t>6799739</t>
   </si>
   <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>Plumb Works? 6" Shower Arm with Flange</t>
+  </si>
+  <si>
+    <t>6784373</t>
+  </si>
+  <si>
+    <t>Plumb Works? Chrome Diverter Tub Spout</t>
+  </si>
+  <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Chrome Pop-Up Bathroom Sink Drain</t>
+  </si>
+  <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
     <t>1-Spray Chrome Fixed Mount Showerhead</t>
   </si>
   <si>
     <t>6781269</t>
   </si>
   <si>
+    <t>zzzzzzdo not use</t>
+  </si>
+  <si>
+    <t>6641298</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
+    <t>Sink Supply Line</t>
+  </si>
+  <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Shower/Bath Faucet Set</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
+    <t>replacement faucet handle</t>
+  </si>
+  <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>1/2 female connector for shower valve</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
     <t>1/2 coupler for quick connector</t>
   </si>
   <si>
@@ -947,187 +1130,7 @@
     <t>680-9810</t>
   </si>
   <si>
-    <t>1/2 female connector for shower valve</t>
-  </si>
-  <si>
-    <t>680-9568</t>
-  </si>
-  <si>
-    <t>2" Replacement Toilet Flush Valve</t>
-  </si>
-  <si>
-    <t>6642019</t>
-  </si>
-  <si>
-    <t>3" toilet flapper</t>
-  </si>
-  <si>
-    <t>6641516</t>
-  </si>
-  <si>
-    <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
-  </si>
-  <si>
-    <t>6641300</t>
-  </si>
-  <si>
-    <t>Air Ventilator Motor Kit</t>
-  </si>
-  <si>
-    <t>angle valve for washer</t>
-  </si>
-  <si>
-    <t>680-9584</t>
-  </si>
-  <si>
-    <t>Bathroom Sink Faucet</t>
-  </si>
-  <si>
-    <t>6739543</t>
-  </si>
-  <si>
-    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
-  </si>
-  <si>
-    <t>6795388</t>
-  </si>
-  <si>
-    <t>Chrome Pop-Up Bathroom Sink Drain</t>
-  </si>
-  <si>
-    <t>6795416</t>
-  </si>
-  <si>
-    <t>Chrome Toilet Tank Lever with Metal Arm</t>
-  </si>
-  <si>
-    <t>6640817</t>
-  </si>
-  <si>
-    <t>DUAL THRD AERATOR 2.2GPM</t>
-  </si>
-  <si>
-    <t>24-89576</t>
-  </si>
-  <si>
-    <t>Home Depot Pro</t>
-  </si>
-  <si>
-    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
-  </si>
-  <si>
-    <t>6640338</t>
-  </si>
-  <si>
-    <t>Korky? Plus Toilet Flapper</t>
-  </si>
-  <si>
-    <t>6641420</t>
-  </si>
-  <si>
-    <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
-  </si>
-  <si>
-    <t>35-52592</t>
-  </si>
-  <si>
-    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
-  </si>
-  <si>
-    <t>6791369</t>
-  </si>
-  <si>
-    <t>Plumb Works? 6" Shower Arm with Flange</t>
-  </si>
-  <si>
-    <t>6784373</t>
-  </si>
-  <si>
-    <t>Plumb Works? Chrome Diverter Tub Spout</t>
-  </si>
-  <si>
-    <t>6790336</t>
-  </si>
-  <si>
-    <t>Premier Hot &amp; Cold buttons</t>
-  </si>
-  <si>
-    <t>set of 2</t>
-  </si>
-  <si>
-    <t>13-3863</t>
-  </si>
-  <si>
-    <t>ProLine 3/8" PVC Toilet Supply Line</t>
-  </si>
-  <si>
-    <t>6640137</t>
-  </si>
-  <si>
-    <t>replacement faucet handle</t>
-  </si>
-  <si>
-    <t>263727</t>
-  </si>
-  <si>
-    <t>HD Supply</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Flange Repair Kit</t>
-  </si>
-  <si>
-    <t>6642365</t>
-  </si>
-  <si>
-    <t>Replacement Toilet Tank-to-Bowl Kit</t>
-  </si>
-  <si>
-    <t>6641311</t>
-  </si>
-  <si>
-    <t>Shower/Bath Faucet Set</t>
-  </si>
-  <si>
-    <t>6736000</t>
-  </si>
-  <si>
-    <t>Sink Supply Line</t>
-  </si>
-  <si>
-    <t>6794361</t>
-  </si>
-  <si>
-    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
-  </si>
-  <si>
-    <t>6791164</t>
-  </si>
-  <si>
-    <t>Tuscany Toilet</t>
-  </si>
-  <si>
-    <t>6704575</t>
-  </si>
-  <si>
-    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
-  </si>
-  <si>
-    <t>6791110</t>
-  </si>
-  <si>
-    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>CANNOT DELETE - IGNORE</t>
-  </si>
-  <si>
-    <t>6641269</t>
-  </si>
-  <si>
-    <t>zzzzzzdo not use</t>
-  </si>
-  <si>
-    <t>6641298</t>
+    <t>1/2 female connector for shower valves</t>
   </si>
   <si>
     <t>Total</t>
@@ -1294,7 +1297,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1302,7 +1305,7 @@
   <cols>
     <col width="20.166666666666668" min="1" max="1" bestFit="1" customWidth="1"/>
     <col width="68.39999999999999" min="2" max="2" bestFit="1" customWidth="1"/>
-    <col width="40.8" min="3" max="3" bestFit="1" customWidth="1"/>
+    <col width="49.199999999999996" min="3" max="3" bestFit="1" customWidth="1"/>
     <col width="21.45" min="4" max="4" bestFit="1" customWidth="1"/>
     <col width="19.5" min="5" max="5" bestFit="1" customWidth="1"/>
     <col width="13.65" min="6" max="6" bestFit="1" customWidth="1"/>
@@ -1425,18 +1428,18 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>1.06</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -1447,17 +1450,19 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="G10" s="7"/>
+        <v>4.64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1469,19 +1474,17 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>10.33</v>
+      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1489,23 +1492,21 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>37.44</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>1.81</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1513,21 +1514,23 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="G13" s="7"/>
+        <v>6.71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1535,21 +1538,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>1.81</v>
+        <v>11.47</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1557,23 +1560,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>6.71</v>
+        <v>31.0</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1585,19 +1588,19 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>40.11</v>
+        <v>534.99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1605,21 +1608,23 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F17" s="9" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>17.1</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1627,45 +1632,45 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>647.35</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>17.53</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>437.63</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -1677,19 +1682,17 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>647.35</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1697,23 +1700,21 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>534.99</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>492.2</v>
+      </c>
+      <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -1721,21 +1722,23 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>37.44</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1747,19 +1750,19 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>17.1</v>
+        <v>40.11</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -1769,23 +1772,19 @@
       <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F24" s="9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G24" s="7" t="s">
+        <v>23.53</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -1795,23 +1794,21 @@
       <c r="B25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>0.67</v>
+        <v>5.87</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1821,23 +1818,21 @@
       <c r="B26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="9" t="n">
-        <v>6.0</v>
+        <v>-3.0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>0.6</v>
+        <v>5.87</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -1847,23 +1842,21 @@
       <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="9" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>0.6</v>
+        <v>52.42</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -1873,23 +1866,21 @@
       <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="9" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H28" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -1897,25 +1888,23 @@
         <v>47</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="9" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -1923,23 +1912,25 @@
         <v>47</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="7"/>
       <c r="D30" s="9" t="n">
-        <v>1.0</v>
+        <v>37.0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F30" s="9" t="n">
-        <v>7.47</v>
+        <v>1.11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1947,23 +1938,23 @@
         <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>32.07</v>
+        <v>23.51</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1971,23 +1962,23 @@
         <v>47</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F32" s="9" t="n">
-        <v>5.34</v>
+        <v>10.99</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -1995,25 +1986,25 @@
         <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="9" t="n">
-        <v>51.0</v>
+        <v>3.0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F33" s="9" t="n">
-        <v>1.11</v>
+        <v>13.24</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -2023,23 +2014,21 @@
       <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="H34" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -2047,25 +2036,23 @@
         <v>47</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="9" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -2073,23 +2060,25 @@
         <v>47</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="D36" s="9" t="n">
-        <v>64.0</v>
+        <v>15.0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -2097,23 +2086,25 @@
         <v>47</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="D37" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>91.58</v>
+        <v>0.67</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -2121,25 +2112,25 @@
         <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D38" s="9" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>2.04</v>
+        <v>0.6</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -2147,23 +2138,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="D39" s="9" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>1.61</v>
+        <v>0.6</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -2171,25 +2164,23 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="9" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>1.98</v>
+        <v>32.07</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -2197,23 +2188,25 @@
         <v>47</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="D41" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>52.42</v>
+        <v>21.39</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -2221,23 +2214,25 @@
         <v>47</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="D42" s="9" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>53.49</v>
+        <v>1.92</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -2245,23 +2240,25 @@
         <v>47</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="D43" s="9" t="n">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>34.23</v>
+        <v>2.32</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -2269,23 +2266,23 @@
         <v>47</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C44" s="7"/>
       <c r="D44" s="9" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="G44" s="7"/>
+        <v>7.47</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="H44" s="7" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -2293,21 +2290,23 @@
         <v>47</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F45" s="9" t="n">
-        <v>100.33</v>
-      </c>
-      <c r="G45" s="7"/>
+        <v>7.47</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="H45" s="7" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -2315,23 +2314,21 @@
         <v>47</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F46" s="9" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>8.99</v>
+      </c>
+      <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -2339,21 +2336,23 @@
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="F47" s="9" t="n">
-        <v>23.53</v>
-      </c>
-      <c r="G47" s="7"/>
+        <v>9.19</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H47" s="7" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -2361,23 +2360,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D48" s="9" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>23.51</v>
+        <v>13.19</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -2385,25 +2386,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D49" s="9" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>2.49</v>
+        <v>13.19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -2411,23 +2412,23 @@
         <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>10.99</v>
+        <v>7.09</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -2435,23 +2436,23 @@
         <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>5.87</v>
+        <v>7.09</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -2459,25 +2460,21 @@
         <v>47</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>76</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>35.0</v>
+      </c>
+      <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53">
@@ -2485,25 +2482,21 @@
         <v>47</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>119</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F53" s="9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
@@ -2511,25 +2504,21 @@
         <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="9" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>39.99</v>
+      </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
@@ -2537,23 +2526,23 @@
         <v>47</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="9" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="F55" s="9" t="n">
-        <v>7.47</v>
+        <v>10.65</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -2561,23 +2550,25 @@
         <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="D56" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>7.47</v>
+        <v>2.08</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -2585,21 +2576,25 @@
         <v>47</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="D57" s="9" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="F57" s="9" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="G57" s="7"/>
+        <v>2.49</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="H57" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
@@ -2607,23 +2602,25 @@
         <v>47</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D58" s="9" t="n">
-        <v>3.0</v>
+        <v>32.0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>9.19</v>
+        <v>1.06</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -2631,23 +2628,25 @@
         <v>47</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="D59" s="9" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F59" s="9" t="n">
-        <v>7.09</v>
+        <v>1.98</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -2655,23 +2654,23 @@
         <v>47</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F60" s="9" t="n">
-        <v>7.09</v>
+        <v>91.58</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
@@ -2679,21 +2678,23 @@
         <v>47</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F61" s="9" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G61" s="7"/>
+        <v>34.23</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="H61" s="7" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -2701,21 +2702,25 @@
         <v>47</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="9" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -2725,19 +2730,23 @@
       <c r="B63" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="D63" s="9" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="F63" s="9" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="G63" s="7"/>
+        <v>4.54</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="H63" s="7" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -2745,21 +2754,21 @@
         <v>47</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F64" s="9" t="n">
         <v>19.27</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65">
@@ -2767,23 +2776,21 @@
         <v>47</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>140</v>
-      </c>
+        <v>100.33</v>
+      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66">
@@ -2791,25 +2798,21 @@
         <v>47</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="7" t="s">
         <v>142</v>
       </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="G66" s="7" t="s">
+        <v>6.96</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="67">
@@ -2819,19 +2822,21 @@
       <c r="B67" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="7"/>
+      <c r="C67" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="D67" s="9" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>6.96</v>
+        <v>43.85</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
@@ -2843,19 +2848,19 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F68" s="9" t="n">
-        <v>5.87</v>
+        <v>1.61</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
@@ -2865,23 +2870,21 @@
       <c r="B69" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="7"/>
+      <c r="D69" s="9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="9" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="F69" s="9" t="n">
-        <v>1.06</v>
+        <v>0.45</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>150</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
@@ -2895,19 +2898,19 @@
         <v>152</v>
       </c>
       <c r="D70" s="9" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F70" s="9" t="n">
         <v>2.04</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -2919,17 +2922,17 @@
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F71" s="9" t="n">
         <v>23.53</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
@@ -2944,7 +2947,7 @@
         <v>1.0</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F72" s="9" t="n">
         <v>352.03</v>
@@ -2966,7 +2969,7 @@
         <v>0.0</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>73.83</v>
@@ -2988,7 +2991,7 @@
         <v>0.0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F74" s="9" t="n">
         <v>171.19</v>
@@ -3010,7 +3013,7 @@
         <v>0.0</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F75" s="9" t="n">
         <v>95.23</v>
@@ -3032,7 +3035,7 @@
         <v>0.0</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F76" s="9" t="n">
         <v>191.53</v>
@@ -3054,14 +3057,14 @@
         <v>1.0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="n">
         <v>37.45</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -3076,14 +3079,14 @@
         <v>0.0</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F78" s="9" t="n">
         <v>255.73</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -3098,14 +3101,14 @@
         <v>1.0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F79" s="9" t="n">
         <v>49.99</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -3120,7 +3123,7 @@
         <v>0.0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F80" s="9" t="n">
         <v>170.13</v>
@@ -3142,7 +3145,7 @@
         <v>0.0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="n">
         <v>191.53</v>
@@ -3164,7 +3167,7 @@
         <v>0.0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F82" s="9" t="n">
         <v>576.73</v>
@@ -3186,14 +3189,14 @@
         <v>2.0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F83" s="9" t="n">
         <v>1599.0</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -3208,14 +3211,14 @@
         <v>1.0</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F84" s="9" t="n">
         <v>26.75</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -3230,7 +3233,7 @@
         <v>136.0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="n">
         <v>267.49</v>
@@ -3252,14 +3255,14 @@
         <v>0.0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F86" s="9" t="n">
         <v>95.23</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -3274,7 +3277,7 @@
         <v>1.0</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F87" s="9" t="n">
         <v>255.73</v>
@@ -3291,21 +3294,21 @@
       <c r="B88" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="7"/>
+      <c r="C88" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="D88" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F88" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>178</v>
-      </c>
+        <v>37.17</v>
+      </c>
+      <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89">
@@ -3315,21 +3318,21 @@
       <c r="B89" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="7"/>
+      <c r="D89" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F89" s="9" t="n">
-        <v>37.17</v>
-      </c>
-      <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -3344,16 +3347,14 @@
         <v>2.0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F90" s="9" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>182</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -3361,23 +3362,21 @@
         <v>176</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="9" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F91" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>184</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -3385,25 +3384,21 @@
         <v>176</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>186</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C92" s="7"/>
       <c r="D92" s="9" t="n">
-        <v>58.0</v>
+        <v>2.0</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="F92" s="9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
@@ -3411,21 +3406,21 @@
         <v>176</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F93" s="9" t="n">
-        <v>235.56</v>
+        <v>0.91</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -3433,23 +3428,21 @@
         <v>176</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="9" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F94" s="9" t="n">
-        <v>8.54</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>192</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -3457,21 +3450,21 @@
         <v>176</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F95" s="9" t="n">
-        <v>266.75</v>
+        <v>0.91</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>190</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -3479,23 +3472,21 @@
         <v>176</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F96" s="9" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -3503,23 +3494,21 @@
         <v>176</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F97" s="9" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
@@ -3527,25 +3516,21 @@
         <v>176</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C98" s="7"/>
       <c r="D98" s="9" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F98" s="9" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>200</v>
-      </c>
+        <v>0.91</v>
+      </c>
+      <c r="G98" s="7"/>
       <c r="H98" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -3553,21 +3538,21 @@
         <v>176</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F99" s="9" t="n">
         <v>0.91</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
@@ -3575,21 +3560,23 @@
         <v>176</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F100" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G100" s="7"/>
+        <v>8.54</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="H100" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -3597,21 +3584,23 @@
         <v>176</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F101" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G101" s="7"/>
+        <v>6.94</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="H101" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -3619,21 +3608,23 @@
         <v>176</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F102" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G102" s="7"/>
+        <v>7.64</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="H102" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
@@ -3641,21 +3632,23 @@
         <v>176</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F103" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G103" s="7"/>
+        <v>17.64</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="H103" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104">
@@ -3663,21 +3656,23 @@
         <v>176</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F104" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G104" s="7"/>
+        <v>12.82</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="H104" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105">
@@ -3685,21 +3680,25 @@
         <v>176</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="7"/>
+        <v>201</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="D105" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F105" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G105" s="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="H105" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
@@ -3707,43 +3706,41 @@
         <v>176</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F106" s="9" t="n">
-        <v>0.91</v>
+        <v>5.0</v>
       </c>
       <c r="G106" s="7"/>
-      <c r="H106" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="H106" s="7"/>
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F107" s="9" t="n">
-        <v>0.91</v>
+        <v>55.64</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
@@ -3751,21 +3748,23 @@
         <v>176</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F108" s="9" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G108" s="7"/>
+        <v>9.62</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="H108" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
@@ -3773,23 +3772,23 @@
         <v>176</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C109" s="7"/>
       <c r="D109" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F109" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G109" s="7"/>
+        <v>8.53</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="H109" s="7" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110">
@@ -3797,23 +3796,21 @@
         <v>176</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C110" s="7"/>
       <c r="D110" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F110" s="9" t="n">
-        <v>37.45</v>
+        <v>5.34</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
@@ -3821,25 +3818,21 @@
         <v>176</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C111" s="7"/>
       <c r="D111" s="9" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F111" s="9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>217</v>
-      </c>
+        <v>7.29</v>
+      </c>
+      <c r="G111" s="7"/>
       <c r="H111" s="7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
@@ -3847,23 +3840,25 @@
         <v>176</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C112" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="D112" s="9" t="n">
-        <v>2.0</v>
+        <v>58.0</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="F112" s="9" t="n">
-        <v>7.64</v>
+        <v>0.33</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -3871,16 +3866,16 @@
         <v>176</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D113" s="9" t="n">
         <v>10.0</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F113" s="9" t="n">
         <v>37.45</v>
@@ -3893,23 +3888,25 @@
         <v>176</v>
       </c>
       <c r="B114" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D114" s="9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" s="9" t="n">
-        <v>37.45</v>
-      </c>
-      <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115">
@@ -3919,21 +3916,21 @@
       <c r="B115" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C115" s="7"/>
+      <c r="C115" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="D115" s="9" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F115" s="9" t="n">
-        <v>8.53</v>
-      </c>
-      <c r="G115" s="7" t="s">
+        <v>37.45</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="116">
@@ -3943,18 +3940,22 @@
       <c r="B116" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C116" s="7"/>
+      <c r="C116" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="D116" s="9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F116" s="9" t="n">
-        <v>5.0</v>
+        <v>37.45</v>
       </c>
       <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+      <c r="H116" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
@@ -3963,21 +3964,21 @@
       <c r="B117" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C117" s="7"/>
+      <c r="C117" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="D117" s="9" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F117" s="9" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>37.45</v>
+      </c>
+      <c r="G117" s="7"/>
       <c r="H117" s="7" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118">
@@ -3985,21 +3986,23 @@
         <v>176</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C118" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="D118" s="9" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F118" s="9" t="n">
-        <v>55.64</v>
+        <v>20.0</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119">
@@ -4007,23 +4010,23 @@
         <v>176</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C119" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="D119" s="9" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F119" s="9" t="n">
-        <v>373.43</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>230</v>
-      </c>
+        <v>10.69</v>
+      </c>
+      <c r="G119" s="7"/>
       <c r="H119" s="7" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120">
@@ -4031,23 +4034,23 @@
         <v>176</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F120" s="9" t="n">
         <v>373.43</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
@@ -4055,21 +4058,23 @@
         <v>176</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F121" s="9" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G121" s="7"/>
+        <v>373.43</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="H121" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122">
@@ -4077,23 +4082,23 @@
         <v>176</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="9" t="n">
         <v>1.0</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F122" s="9" t="n">
         <v>272.85</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
@@ -4101,21 +4106,23 @@
         <v>176</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="G123" s="7"/>
+        <v>272.85</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>235</v>
+      </c>
       <c r="H123" s="7" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124">
@@ -4123,23 +4130,21 @@
         <v>176</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>212</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C124" s="7"/>
       <c r="D124" s="9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>20.0</v>
+        <v>235.56</v>
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="7" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125">
@@ -4149,21 +4154,19 @@
       <c r="B125" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>212</v>
-      </c>
+      <c r="C125" s="7"/>
       <c r="D125" s="9" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F125" s="9" t="n">
-        <v>10.69</v>
+        <v>266.75</v>
       </c>
       <c r="G125" s="7"/>
       <c r="H125" s="7" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126">
@@ -4177,10 +4180,10 @@
         <v>241</v>
       </c>
       <c r="D126" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F126" s="9" t="n">
         <v>11.76</v>
@@ -4189,7 +4192,7 @@
         <v>242</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
@@ -4201,19 +4204,19 @@
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F127" s="9" t="n">
-        <v>3.19</v>
+        <v>10.68</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>244</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128">
@@ -4228,16 +4231,16 @@
         <v>5.0</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F128" s="9" t="n">
-        <v>3.83</v>
+        <v>3.19</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>246</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
@@ -4249,19 +4252,19 @@
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F129" s="9" t="n">
-        <v>127.33</v>
+        <v>12.82</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>248</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130">
@@ -4276,16 +4279,16 @@
         <v>2.0</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F130" s="9" t="n">
-        <v>127.33</v>
+        <v>11.22</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>250</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131">
@@ -4297,19 +4300,19 @@
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="9" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="F131" s="9" t="n">
-        <v>11.22</v>
+        <v>10.15</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>252</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
@@ -4319,21 +4322,23 @@
       <c r="B132" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C132" s="7"/>
+      <c r="C132" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="D132" s="9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="F132" s="9" t="n">
-        <v>10.15</v>
+        <v>0.39</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
@@ -4341,23 +4346,25 @@
         <v>239</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C133" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="D133" s="9" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F133" s="9" t="n">
-        <v>10.68</v>
+        <v>0.38</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
@@ -4365,23 +4372,25 @@
         <v>239</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C134" s="7"/>
+        <v>258</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="D134" s="9" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F134" s="9" t="n">
-        <v>46.86</v>
+        <v>0.39</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135">
@@ -4389,25 +4398,25 @@
         <v>239</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D135" s="9" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F135" s="9" t="n">
-        <v>10.15</v>
+        <v>0.38</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>261</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136">
@@ -4417,23 +4426,21 @@
       <c r="B136" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C136" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="C136" s="7"/>
       <c r="D136" s="9" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F136" s="9" t="n">
-        <v>0.39</v>
+        <v>3.18</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
@@ -4441,25 +4448,23 @@
         <v>239</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C137" s="7"/>
       <c r="D137" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F137" s="9" t="n">
-        <v>0.38</v>
+        <v>7.46</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138">
@@ -4467,23 +4472,23 @@
         <v>239</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F138" s="9" t="n">
-        <v>25.67</v>
+        <v>3.19</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139">
@@ -4491,23 +4496,23 @@
         <v>239</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F139" s="9" t="n">
-        <v>12.82</v>
+        <v>3.83</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140">
@@ -4515,23 +4520,25 @@
         <v>239</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C140" s="7"/>
       <c r="D140" s="9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F140" s="9" t="n">
-        <v>12.29</v>
+        <v>10.15</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>272</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141">
@@ -4543,19 +4550,19 @@
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F141" s="9" t="n">
-        <v>14.41</v>
+        <v>127.33</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>274</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142">
@@ -4565,23 +4572,21 @@
       <c r="B142" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="C142" s="7"/>
       <c r="D142" s="9" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F142" s="9" t="n">
-        <v>0.39</v>
+        <v>127.33</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>276</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143">
@@ -4591,23 +4596,21 @@
       <c r="B143" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>263</v>
-      </c>
+      <c r="C143" s="7"/>
       <c r="D143" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F143" s="9" t="n">
-        <v>0.38</v>
+        <v>25.67</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>278</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144">
@@ -4619,19 +4622,19 @@
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="9" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F144" s="9" t="n">
-        <v>7.46</v>
+        <v>46.86</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>280</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
@@ -4643,19 +4646,19 @@
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="F145" s="9" t="n">
-        <v>3.19</v>
+        <v>12.29</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>282</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146">
@@ -4667,19 +4670,19 @@
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F146" s="9" t="n">
-        <v>3.18</v>
+        <v>14.41</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>284</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
@@ -4693,19 +4696,19 @@
         <v>286</v>
       </c>
       <c r="D147" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F147" s="9" t="n">
         <v>10.15</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
@@ -4719,10 +4722,10 @@
         <v>241</v>
       </c>
       <c r="D148" s="9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F148" s="9" t="n">
         <v>11.76</v>
@@ -4731,7 +4734,7 @@
         <v>242</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149">
@@ -4743,19 +4746,17 @@
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F149" s="9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>290</v>
-      </c>
+        <v>21.2</v>
+      </c>
+      <c r="G149" s="7"/>
       <c r="H149" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150">
@@ -4763,23 +4764,23 @@
         <v>288</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="9" t="n">
         <v>4.0</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F150" s="9" t="n">
-        <v>8.55</v>
+        <v>21.39</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
@@ -4787,25 +4788,25 @@
         <v>288</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="D151" s="9" t="n">
         <v>6.0</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F151" s="9" t="n">
-        <v>8.24</v>
+        <v>1.31</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>25</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152">
@@ -4813,23 +4814,23 @@
         <v>288</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="9" t="n">
         <v>5.0</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F152" s="9" t="n">
-        <v>5.99</v>
+        <v>9.61</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153">
@@ -4837,23 +4838,25 @@
         <v>288</v>
       </c>
       <c r="B153" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D153" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F153" s="9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C153" s="7"/>
-      <c r="D153" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F153" s="9" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="H153" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154">
@@ -4861,23 +4864,23 @@
         <v>288</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F154" s="9" t="n">
-        <v>12.27</v>
+        <v>37.66</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155">
@@ -4885,23 +4888,25 @@
         <v>288</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C155" s="7"/>
       <c r="D155" s="9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F155" s="9" t="n">
-        <v>4.78</v>
+        <v>2.66</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>303</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156">
@@ -4913,17 +4918,19 @@
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F156" s="9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G156" s="7"/>
+        <v>4.78</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="H156" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
@@ -4931,23 +4938,23 @@
         <v>288</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="9" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F157" s="9" t="n">
-        <v>10.56</v>
+        <v>3.95</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
@@ -4955,23 +4962,23 @@
         <v>288</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F158" s="9" t="n">
-        <v>21.39</v>
+        <v>9.62</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159">
@@ -4979,23 +4986,23 @@
         <v>288</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C159" s="7"/>
       <c r="D159" s="9" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F159" s="9" t="n">
-        <v>6.41</v>
+        <v>9.62</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160">
@@ -5003,23 +5010,23 @@
         <v>288</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="9" t="n">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F160" s="9" t="n">
-        <v>11.76</v>
+        <v>19.25</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161">
@@ -5027,23 +5034,23 @@
         <v>288</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F161" s="9" t="n">
-        <v>6.41</v>
+        <v>11.76</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162">
@@ -5051,25 +5058,23 @@
         <v>288</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>122</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C162" s="7"/>
       <c r="D162" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F162" s="9" t="n">
-        <v>1.31</v>
+        <v>6.41</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163">
@@ -5081,19 +5086,19 @@
       </c>
       <c r="C163" s="7"/>
       <c r="D163" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F163" s="9" t="n">
-        <v>9.61</v>
+        <v>7.48</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>319</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164">
@@ -5103,23 +5108,21 @@
       <c r="B164" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F164" s="9" t="n">
-        <v>4.26</v>
+        <v>11.76</v>
       </c>
       <c r="G164" s="7" t="s">
         <v>321</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165">
@@ -5131,19 +5134,19 @@
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F165" s="9" t="n">
-        <v>37.66</v>
+        <v>8.55</v>
       </c>
       <c r="G165" s="7" t="s">
         <v>323</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
@@ -5153,23 +5156,21 @@
       <c r="B166" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="C166" s="7"/>
       <c r="D166" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F166" s="9" t="n">
-        <v>2.32</v>
+        <v>2.97</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>325</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167">
@@ -5181,19 +5182,19 @@
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F167" s="9" t="n">
-        <v>9.62</v>
+        <v>6.41</v>
       </c>
       <c r="G167" s="7" t="s">
         <v>327</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168">
@@ -5205,19 +5206,19 @@
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F168" s="9" t="n">
-        <v>19.25</v>
+        <v>7.48</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>329</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169">
@@ -5231,10 +5232,10 @@
         <v>331</v>
       </c>
       <c r="D169" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F169" s="9" t="n">
         <v>1.28</v>
@@ -5243,7 +5244,7 @@
         <v>332</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="170">
@@ -5258,7 +5259,7 @@
         <v>5.0</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F170" s="9" t="n">
         <v>5.55</v>
@@ -5267,7 +5268,7 @@
         <v>334</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
@@ -5279,19 +5280,19 @@
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F171" s="9" t="n">
-        <v>2.45</v>
+        <v>5.34</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>336</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>337</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172">
@@ -5299,23 +5300,23 @@
         <v>288</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F172" s="9" t="n">
-        <v>7.48</v>
+        <v>6.4</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173">
@@ -5323,23 +5324,25 @@
         <v>288</v>
       </c>
       <c r="B173" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D173" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F173" s="9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C173" s="7"/>
-      <c r="D173" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F173" s="9" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="H173" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174">
@@ -5347,23 +5350,23 @@
         <v>288</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F174" s="9" t="n">
-        <v>73.83</v>
+        <v>12.27</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175">
@@ -5371,23 +5374,23 @@
         <v>288</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
         <v>2.0</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F175" s="9" t="n">
-        <v>5.34</v>
+        <v>105.93</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176">
@@ -5395,23 +5398,23 @@
         <v>288</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F176" s="9" t="n">
-        <v>11.76</v>
+        <v>73.83</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177">
@@ -5419,23 +5422,23 @@
         <v>288</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="9" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F177" s="9" t="n">
-        <v>105.93</v>
+        <v>10.56</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178">
@@ -5443,23 +5446,23 @@
         <v>288</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F178" s="9" t="n">
-        <v>6.4</v>
+        <v>2.45</v>
       </c>
       <c r="G178" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H178" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="179">
@@ -5469,23 +5472,21 @@
       <c r="B179" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="7"/>
+      <c r="D179" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F179" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D179" s="9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F179" s="9" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="H179" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180">
@@ -5493,39 +5494,67 @@
         <v>288</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C180" s="7"/>
       <c r="D180" s="9" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F180" s="9" t="n">
-        <v>2.97</v>
+        <v>8.24</v>
       </c>
       <c r="G180" s="7" t="s">
         <v>356</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="181"/>
-    <row r="182">
-      <c r="A182" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B181" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="10" t="n">
-        <v>1017.0</v>
-      </c>
-      <c r="E182" s="8"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
+      <c r="C181" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D181" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F181" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182"/>
+    <row r="183">
+      <c r="A183" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="10" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E183" s="8"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/south_des_moines.xlsx
+++ b/south_des_moines.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>03/24/2025 09:09 PM</t>
+      <t>06/08/2025 12:31 PM</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
     <t>Electrical</t>
   </si>
   <si>
-    <t>Zzzzzdo otuse</t>
+    <t>ZZZZZZZZ DO NOT USE</t>
   </si>
   <si>
     <t>3</t>
@@ -1115,7 +1115,7 @@
     <t>HD Supply</t>
   </si>
   <si>
-    <t>1/2 female connector for shower valve</t>
+    <t>Do not use</t>
   </si>
   <si>
     <t>680-9568</t>
@@ -1303,7 +1303,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col width="20.166666666666668" min="1" max="1" bestFit="1" customWidth="1"/>
+    <col width="20.75166666666667" min="1" max="1" bestFit="1" customWidth="1"/>
     <col width="68.39999999999999" min="2" max="2" bestFit="1" customWidth="1"/>
     <col width="49.199999999999996" min="3" max="3" bestFit="1" customWidth="1"/>
     <col width="21.45" min="4" max="4" bestFit="1" customWidth="1"/>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>18</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>21</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>27</v>
@@ -1918,7 +1918,7 @@
         <v>62</v>
       </c>
       <c r="D30" s="9" t="n">
-        <v>37.0</v>
+        <v>17.0</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>63</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>15</v>
@@ -2066,7 +2066,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="9" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>18</v>
@@ -2118,7 +2118,7 @@
         <v>77</v>
       </c>
       <c r="D38" s="9" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>18</v>
@@ -2144,7 +2144,7 @@
         <v>77</v>
       </c>
       <c r="D39" s="9" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>18</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="9" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>18</v>
@@ -2220,7 +2220,7 @@
         <v>91</v>
       </c>
       <c r="D42" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>21</v>
@@ -2246,7 +2246,7 @@
         <v>94</v>
       </c>
       <c r="D43" s="9" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>95</v>
@@ -2392,7 +2392,7 @@
         <v>105</v>
       </c>
       <c r="D49" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>27</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>27</v>
@@ -2582,7 +2582,7 @@
         <v>105</v>
       </c>
       <c r="D57" s="9" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>95</v>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>27</v>
@@ -2734,7 +2734,7 @@
         <v>70</v>
       </c>
       <c r="D63" s="9" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>138</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>21</v>
@@ -2826,7 +2826,7 @@
         <v>145</v>
       </c>
       <c r="D67" s="9" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>18</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>21</v>
@@ -2898,7 +2898,7 @@
         <v>152</v>
       </c>
       <c r="D70" s="9" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>95</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>49</v>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>18</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>21</v>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="9" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>18</v>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="9" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>31</v>
@@ -3872,7 +3872,7 @@
         <v>218</v>
       </c>
       <c r="D113" s="9" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>31</v>
@@ -3920,7 +3920,7 @@
         <v>218</v>
       </c>
       <c r="D115" s="9" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="E115" s="7" t="s">
         <v>31</v>
@@ -3944,7 +3944,7 @@
         <v>218</v>
       </c>
       <c r="D116" s="9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>31</v>
@@ -3968,7 +3968,7 @@
         <v>218</v>
       </c>
       <c r="D117" s="9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>31</v>
@@ -3992,7 +3992,7 @@
         <v>218</v>
       </c>
       <c r="D118" s="9" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E118" s="7" t="s">
         <v>18</v>
@@ -4016,7 +4016,7 @@
         <v>218</v>
       </c>
       <c r="D119" s="9" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>18</v>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E121" s="7" t="s">
         <v>31</v>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>31</v>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>31</v>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>27</v>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E127" s="7" t="s">
         <v>49</v>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>49</v>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="9" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>95</v>
@@ -4378,7 +4378,7 @@
         <v>254</v>
       </c>
       <c r="D134" s="9" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="E134" s="7" t="s">
         <v>18</v>
@@ -4404,7 +4404,7 @@
         <v>254</v>
       </c>
       <c r="D135" s="9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E135" s="7" t="s">
         <v>18</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E136" s="7" t="s">
         <v>21</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>21</v>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>27</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>27</v>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>27</v>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>21</v>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>27</v>
@@ -4722,7 +4722,7 @@
         <v>241</v>
       </c>
       <c r="D148" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>49</v>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>49</v>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>27</v>
@@ -4794,7 +4794,7 @@
         <v>94</v>
       </c>
       <c r="D151" s="9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>49</v>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>21</v>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E154" s="7" t="s">
         <v>21</v>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>27</v>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>49</v>
@@ -5232,7 +5232,7 @@
         <v>331</v>
       </c>
       <c r="D169" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>21</v>
@@ -5304,7 +5304,7 @@
       </c>
       <c r="C172" s="7"/>
       <c r="D172" s="9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>21</v>
@@ -5330,7 +5330,7 @@
         <v>120</v>
       </c>
       <c r="D173" s="9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>49</v>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>31</v>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>21</v>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>21</v>
@@ -5500,7 +5500,7 @@
         <v>355</v>
       </c>
       <c r="D180" s="9" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>21</v>
@@ -5526,7 +5526,7 @@
         <v>357</v>
       </c>
       <c r="D181" s="9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>138</v>
@@ -5549,7 +5549,7 @@
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="10" t="n">
-        <v>1000.0</v>
+        <v>949.0</v>
       </c>
       <c r="E183" s="8"/>
       <c r="F183" s="10"/>

--- a/south_des_moines.xlsx
+++ b/south_des_moines.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>06/17/2025 07:53 PM</t>
+      <t>06/17/2025 08:14 PM</t>
     </r>
   </si>
   <si>
